--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2191122.155031039</v>
+        <v>2324085.359512494</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954775</v>
+        <v>16612500.99216497</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083135</v>
+        <v>278692.0725916856</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5026848.551735582</v>
+        <v>5492709.792342811</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>320.0331481255877</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>158.4573142730619</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>63.15068489140545</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -868,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>54.66258501924847</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +904,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>59.59474737021493</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2.517103554504397</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1056,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>14.1441627534537</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>252.0523785885634</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1136,10 +1138,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>61.7084369542271</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1196,10 +1198,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>45.10878876340973</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1382,13 +1384,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>185.1998583465738</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1528,10 +1530,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>20.56754178381372</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1591,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>47.90525155920228</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1616,16 +1618,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>186.7520388613992</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1771,19 +1773,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>28.46824604904437</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>124.4124267272064</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2005,13 +2007,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>13.01313443288555</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2020,7 +2022,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>129.5445345985673</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2068,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2138,7 +2140,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>18.05677735225717</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998912</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2299,7 +2301,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695682</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>120.1838601509832</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2491,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>199.4201398804786</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2773,7 +2775,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>108.5103196251634</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2950,13 +2952,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>109.4731500843522</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3187,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3196,7 +3198,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -3205,7 +3207,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>155.2022955251541</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>242.789707903734</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>422.036574780059</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3424,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>67.84972440587259</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3436,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>43.48898701015855</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3481,7 +3483,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>50.30825486907107</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>205.9555570933291</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3746,19 +3748,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>215.3821362116091</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225796</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3980,10 +3982,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -3992,7 +3994,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>240.4986321384065</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4135,13 +4137,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4150,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>7.264602967362609</v>
+        <v>31.24391673888107</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2078.642592532902</v>
+        <v>442.640221925911</v>
       </c>
       <c r="C2" t="n">
-        <v>1640.500119716325</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
-        <v>1204.590334890769</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>770.8155900490646</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>342.9481604582723</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>518.3865980530361</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>1179.226652594814</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>1840.066707136593</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>2500.906761678371</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>2500.906761678371</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>2669.245775882865</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X2" t="n">
-        <v>2509.187882677752</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y2" t="n">
-        <v>2504.942163017809</v>
+        <v>464.8993883704147</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>1357.443063079289</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>1357.443063079289</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1357.443063079289</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>1357.443063079289</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1357.443063079289</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1357.443063079289</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="P3" t="n">
-        <v>2012.149109705013</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>838.3506954956167</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>838.3506954956167</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>2648.6430051368</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>2402.763558715255</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U4" t="n">
-        <v>2124.33055796836</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V4" t="n">
-        <v>2069.115825625685</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="W4" t="n">
-        <v>1797.089421211977</v>
+        <v>838.3506954956167</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>838.3506954956167</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>838.3506954956167</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1011.477214236518</v>
+        <v>2072.614400557222</v>
       </c>
       <c r="C5" t="n">
-        <v>573.3347414199409</v>
+        <v>1634.471927740645</v>
       </c>
       <c r="D5" t="n">
-        <v>137.4249565943854</v>
+        <v>1198.56214291509</v>
       </c>
       <c r="E5" t="n">
-        <v>77.22824207901677</v>
+        <v>764.7873980733851</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862856</v>
+        <v>740.960372522997</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>339.5625411462608</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>674.533170634256</v>
       </c>
       <c r="L5" t="n">
-        <v>488.6559039815464</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="M5" t="n">
-        <v>488.6559039815464</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2352.465264720797</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2519.07680063092</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2519.07680063092</v>
       </c>
       <c r="W5" t="n">
-        <v>2265.205371842461</v>
+        <v>2518.261750082358</v>
       </c>
       <c r="X5" t="n">
-        <v>1846.062908421772</v>
+        <v>2503.159690702073</v>
       </c>
       <c r="Y5" t="n">
-        <v>1437.776784721425</v>
+        <v>2498.91397104213</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="J6" t="n">
-        <v>404.0232146552985</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>1064.863269197077</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>1064.863269197077</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="M6" t="n">
-        <v>1064.863269197077</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="N6" t="n">
-        <v>1064.863269197077</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1064.863269197077</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1064.863269197077</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.4772326516127</v>
+        <v>610.4637778970769</v>
       </c>
       <c r="C7" t="n">
-        <v>568.9155211348376</v>
+        <v>610.4637778970769</v>
       </c>
       <c r="D7" t="n">
-        <v>403.0375283363603</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="E7" t="n">
-        <v>233.2795245870976</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="F7" t="n">
-        <v>218.9924915028009</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>53.40121652862856</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>1292.433105213328</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1586.250411413399</v>
       </c>
       <c r="O7" t="n">
-        <v>2154.361157596754</v>
+        <v>2005.91966063918</v>
       </c>
       <c r="P7" t="n">
-        <v>2501.868051567096</v>
+        <v>2353.426554609522</v>
       </c>
       <c r="Q7" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2500.201508179226</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2340.960139477223</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2095.080693055678</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>1816.647692308783</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1529.692184179213</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1275.093821968543</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1029.702067301956</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705998</v>
+        <v>802.282396616064</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1789.095648603258</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C8" t="n">
-        <v>1350.953175786681</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="D8" t="n">
-        <v>915.0433909611256</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E8" t="n">
         <v>481.2686461194208</v>
@@ -4805,16 +4807,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4844,10 +4846,10 @@
         <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>2219.640938748108</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.395219088166</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>740.3049442308645</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L9" t="n">
-        <v>740.3049442308645</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="M9" t="n">
-        <v>1401.144998772643</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N9" t="n">
-        <v>1401.144998772643</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O9" t="n">
-        <v>1401.144998772643</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P9" t="n">
-        <v>1401.144998772643</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1791.820831731407</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1353.67835891483</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>917.7685740892747</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>483.9938292475699</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>56.12639965677761</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677761</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677761</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096955</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>491.3810871096955</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1185.945282862318</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1248.037526580578</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>1942.601722333201</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>1942.601722333201</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>2637.165918085824</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085824</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838881</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>2619.249418852442</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>2619.249418852442</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>2619.249418852442</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2619.249418852442</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>2200.106955431753</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1791.820831731407</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056514</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>56.12639965677761</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K12" t="n">
-        <v>56.12639965677761</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L12" t="n">
-        <v>750.6905954094004</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M12" t="n">
-        <v>1445.254791162023</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N12" t="n">
-        <v>1719.366161135586</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O12" t="n">
-        <v>1719.366161135586</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="P12" t="n">
-        <v>1719.366161135586</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1719.366161135586</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>990.0818622013066</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C13" t="n">
-        <v>817.5201506845316</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>796.7448559534066</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>626.9868522041439</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>450.2797981659001</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>284.6885231917278</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7863488821023</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>417.464539392603</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2651.368188264949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2492.126819562946</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2492.126819562946</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2213.693818816051</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1926.738310686482</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1654.711906272773</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1409.320151606186</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y13" t="n">
-        <v>1181.900480920294</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1552.591825232937</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1114.44935241636</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>678.5395675908048</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>244.7648227491</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>56.12639965677761</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677761</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677761</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>56.12639965677761</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>56.12639965677761</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>750.6905954094004</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1445.254791162023</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="N14" t="n">
-        <v>2139.818986914646</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O14" t="n">
-        <v>2806.319982838881</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P14" t="n">
-        <v>2806.319982838881</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q14" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838881</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838881</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838881</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>2806.319982838881</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>2806.319982838881</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2387.177519418191</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>1978.891395717845</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056514</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677761</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>56.12639965677761</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>484.0630267508879</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>484.0630267508879</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>484.0630267508879</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>484.0630267508879</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>484.0630267508879</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1178.627222503511</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1719.366161135586</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>765.6202370743899</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C16" t="n">
-        <v>593.0585255576149</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D16" t="n">
-        <v>427.1805327591376</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E16" t="n">
-        <v>398.4247286691938</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F16" t="n">
-        <v>221.7176746309499</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G16" t="n">
-        <v>56.12639965677761</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677761</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>417.464539392603</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S16" t="n">
-        <v>2513.544640857574</v>
+        <v>2571.833510972685</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.665194436029</v>
+        <v>2325.954064551141</v>
       </c>
       <c r="U16" t="n">
-        <v>1989.232193689134</v>
+        <v>2047.521063804246</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.276685559565</v>
+        <v>1760.565555674676</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.250281145856</v>
+        <v>1488.539151260968</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.858526479269</v>
+        <v>1243.147396594381</v>
       </c>
       <c r="Y16" t="n">
-        <v>957.4388557933771</v>
+        <v>1015.727725908489</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5555,10 +5557,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5597,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3320.902622224261</v>
+        <v>1017.756527079655</v>
       </c>
       <c r="C19" t="n">
-        <v>3148.340910707486</v>
+        <v>845.1948155628801</v>
       </c>
       <c r="D19" t="n">
-        <v>3148.340910707486</v>
+        <v>679.3168227644028</v>
       </c>
       <c r="E19" t="n">
-        <v>2978.582906958224</v>
+        <v>509.55881901514</v>
       </c>
       <c r="F19" t="n">
-        <v>2801.87585291998</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>2636.284577945808</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>4953.800644836978</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>4822.9475795859</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>4544.514578839005</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>4257.559070709436</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>3985.532666295728</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>3740.14091162914</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>3512.721240943249</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5740,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5759,43 +5761,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2758.053686176684</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.9960463903949</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>798.4343348736198</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>632.5563420751425</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>462.7983383258798</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>286.091284287636</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>120.5000093134636</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>120.5000093134636</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5938,22 +5940,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2683.363958244297</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2404.930957497402</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>2117.975449367833</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.814665109382</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5992,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1015.441008084184</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C25" t="n">
-        <v>842.8792965674086</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
         <v>190.9207894961043</v>
@@ -6175,22 +6177,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2517.485965445823</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2239.052964698928</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1952.097456569358</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1680.07105215565</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1434.679297489062</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1207.259626803171</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>3137.402081918264</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4117.581748488571</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4945.891623321967</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6463,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>537.5155277236975</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1612.575493976557</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2769.623329187108</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>3895.354312623555</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>3895.354312623555</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6546,13 +6548,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>1056.803889081883</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>1056.803889081883</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N30" t="n">
-        <v>1056.803889081883</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
         <v>1765.500601749588</v>
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>838.9992856166232</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>838.9992856166232</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>673.1212928181459</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
         <v>673.1212928181459</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2586.923689399807</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2341.044242978262</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U31" t="n">
-        <v>2062.611242231368</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V31" t="n">
-        <v>1775.655734101798</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1503.62932968809</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1258.237575021502</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1030.81790433561</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.659051657336</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="C34" t="n">
-        <v>920.0973401405612</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D34" t="n">
-        <v>754.2193473420839</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928212</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2562.150454693625</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2316.271008272081</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2316.271008272081</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>2029.315500142511</v>
+        <v>1768.706683812817</v>
       </c>
       <c r="W34" t="n">
-        <v>1757.289095728803</v>
+        <v>1496.680279399108</v>
       </c>
       <c r="X34" t="n">
-        <v>1511.897341062215</v>
+        <v>1251.288524732521</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.477670376323</v>
+        <v>1023.868854046629</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6925,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6935,31 +6937,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2970399865835</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>426.8553649527958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903949</v>
+        <v>1077.292364523333</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736198</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751425</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258798</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>286.091284287636</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7162,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,52 +7174,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1003.573296407379</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C40" t="n">
-        <v>831.0115848906036</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D40" t="n">
-        <v>665.1335920921263</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E40" t="n">
-        <v>495.3755883428635</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F40" t="n">
-        <v>318.6685343046197</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G40" t="n">
-        <v>153.0772593304474</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7360,22 +7362,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2351.643165215688</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2073.210164468793</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1786.254656339223</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1514.228251925515</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1268.836497258927</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1041.416826573035</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>930.1786572989098</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>492.0361844823331</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>56.12639965677759</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>56.12639965677759</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>56.12639965677759</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>56.12639965677759</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677759</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677759</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677759</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>56.12639965677759</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>56.12639965677759</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M41" t="n">
-        <v>750.6905954094002</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N41" t="n">
-        <v>870.6928053750395</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O41" t="n">
-        <v>1565.257001127662</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P41" t="n">
-        <v>2259.821196880285</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.31998283888</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.31998283888</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.31998283888</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.31998283888</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>2806.31998283888</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>2588.76226949382</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>2183.906814904853</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>1764.764351484164</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>1356.478227783818</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056513</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677759</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>82.19007281723519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J42" t="n">
-        <v>406.7483977834476</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K42" t="n">
-        <v>1061.454444409171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L42" t="n">
-        <v>1061.454444409171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M42" t="n">
-        <v>1061.454444409171</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N42" t="n">
-        <v>1061.454444409171</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O42" t="n">
-        <v>1061.454444409171</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P42" t="n">
-        <v>1061.454444409171</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>906.6224367337088</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>734.0607252169337</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>568.1827324184565</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>398.4247286691938</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>221.7176746309499</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>56.12639965677759</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H43" t="n">
-        <v>56.12639965677759</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677759</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214674</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>417.464539392603</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2672.786009559577</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2654.546840516893</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="T43" t="n">
-        <v>2408.667394095348</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U43" t="n">
-        <v>2130.234393348453</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V43" t="n">
-        <v>1843.278885218884</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W43" t="n">
-        <v>1571.252480805175</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X43" t="n">
-        <v>1325.860726138588</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y43" t="n">
-        <v>1098.441055452696</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1323.950922813743</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>885.808449997166</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>885.808449997166</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>885.808449997166</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>457.9410204063737</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>56.54318902963759</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>56.54318902963759</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677759</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>491.3810871096954</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1185.945282862318</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L44" t="n">
-        <v>1185.945282862318</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M44" t="n">
-        <v>1185.945282862318</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N44" t="n">
-        <v>1185.945282862318</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.102936374605</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="P44" t="n">
-        <v>2090.667132127228</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085823</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.31998283888</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.31998283888</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>2806.31998283888</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>2806.31998283888</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>2563.392071587964</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2158.536616998997</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>2158.536616998997</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>1750.25049329865</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1649.251966351364</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>1542.795505188006</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>1447.705216334559</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>1353.584801661513</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>1270.200963277675</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>1184.815873543859</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>1143.080221360071</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>1169.143894520529</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>1493.702219486741</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>2174.435739557119</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>2174.435739557119</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>2174.435739557119</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>2174.435739557119</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>2174.435739557119</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>2174.435739557119</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>2689.14720474454</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>2806.31998283888</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>2742.864545287263</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>2612.685901617865</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>2436.349354617833</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>2237.231836679832</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>2051.909082413026</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>1897.041646651906</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>1770.555867431127</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>744.2024157797618</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C46" t="n">
-        <v>571.6407042629868</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="D46" t="n">
-        <v>405.7627114645095</v>
+        <v>645.8766848899141</v>
       </c>
       <c r="E46" t="n">
-        <v>405.7627114645095</v>
+        <v>476.1186811406514</v>
       </c>
       <c r="F46" t="n">
-        <v>229.0556574262657</v>
+        <v>299.4116271024076</v>
       </c>
       <c r="G46" t="n">
-        <v>63.46438245209336</v>
+        <v>133.8203521282352</v>
       </c>
       <c r="H46" t="n">
-        <v>56.12639965677759</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677759</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214674</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>417.464539392603</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2246.247373141401</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>1967.814372394506</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1680.858864264937</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1408.832459851228</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1163.440705184641</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>936.021034498749</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8060,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8143,10 +8145,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8213,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>512.4570950335029</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8295,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8383,7 +8385,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>446.7260637956006</v>
+        <v>299.7839758982041</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8453,19 +8455,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8529,7 +8531,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>667.515206607857</v>
@@ -8538,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>200.3264657984394</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8690,25 +8692,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5799957097202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>62.71943809925187</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5799957097202</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8766,31 +8768,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>276.8801716904677</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>701.5799957097202</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5799957097199</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>673.2333292163985</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>432.2592192869801</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097202</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,22 +9245,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9659,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9884,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9893,10 +9895,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>168.8387779969835</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10124,13 +10126,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>677.9686009664961</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10194,16 +10196,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,25 +11065,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097199</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>121.2143535006458</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097199</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097199</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,22 +11299,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097198</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>212.2804580932195</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097199</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963853</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>32.66669650911797</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>143.6516710866788</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>195.0325855607194</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>236.8367164334852</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>33.23652828777691</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>161.9268490649758</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>113.876117358762</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>69.71657238081424</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>208.2197249473402</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>69.71657238081409</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>44.0005120768507</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>48.17580493063112</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>2.446659489829187</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>41.29624514453982</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>102.9863699957347</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>88.19489769745815</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>37.46509486400021</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25634,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>143.6086443539026</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627253</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25868,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>118.4921484271052</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.2385495991666</v>
+        <v>107.2592358276482</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>477755.3519109921</v>
+        <v>475261.0514994587</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>477755.3519109921</v>
+        <v>477374.7719033379</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>314019.8235086377</v>
+        <v>474439.2592998933</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>314019.8235086377</v>
+        <v>474439.2592998935</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>474439.2592998933</v>
+        <v>474439.2592998935</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>474439.2592998935</v>
+        <v>474439.2592998933</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>474439.2592998933</v>
+        <v>474439.2592998935</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>314019.8235086376</v>
+        <v>474439.2592998933</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>314019.8235086376</v>
+        <v>474439.2592998933</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>469128.9049041074</v>
+      </c>
+      <c r="C2" t="n">
         <v>469128.9049041075</v>
-      </c>
-      <c r="C2" t="n">
-        <v>469128.9049041074</v>
       </c>
       <c r="D2" t="n">
         <v>469128.9049041074</v>
       </c>
       <c r="E2" t="n">
-        <v>305124.9597271816</v>
+        <v>461000.3861201834</v>
       </c>
       <c r="F2" t="n">
-        <v>305124.9597271815</v>
+        <v>461000.3861201834</v>
       </c>
       <c r="G2" t="n">
-        <v>461000.3861201835</v>
+        <v>461000.3861201832</v>
       </c>
       <c r="H2" t="n">
-        <v>461000.3861201832</v>
+        <v>461000.3861201834</v>
       </c>
       <c r="I2" t="n">
         <v>461000.3861201834</v>
       </c>
       <c r="J2" t="n">
-        <v>461000.3861201833</v>
+        <v>461000.3861201834</v>
       </c>
       <c r="K2" t="n">
         <v>461000.3861201834</v>
       </c>
       <c r="L2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="M2" t="n">
         <v>461000.3861201833</v>
@@ -26350,10 +26352,10 @@
         <v>461000.3861201833</v>
       </c>
       <c r="O2" t="n">
-        <v>305124.9597271816</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="P2" t="n">
-        <v>305124.9597271814</v>
+        <v>461000.3861201832</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501615</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998278</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.9966004561</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461093</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877251</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622321</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340709</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122130.8532251353</v>
+        <v>175300.239865111</v>
       </c>
       <c r="C4" t="n">
-        <v>122130.8532251352</v>
+        <v>130243.4307963243</v>
       </c>
       <c r="D4" t="n">
         <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>9428.555608343535</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="F4" t="n">
-        <v>9428.555608343533</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="G4" t="n">
         <v>14245.20557049264</v>
@@ -26454,10 +26456,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>9428.555608343531</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="P4" t="n">
-        <v>9428.555608343533</v>
+        <v>14245.20557049264</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.06373915098</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.06373915098</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915097</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915097</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49085.8285331697</v>
+        <v>92212.57624206424</v>
       </c>
       <c r="C6" t="n">
-        <v>272785.5271172145</v>
+        <v>200341.4924047645</v>
       </c>
       <c r="D6" t="n">
-        <v>272785.5271172145</v>
+        <v>261257.9315672317</v>
       </c>
       <c r="E6" t="n">
-        <v>242869.343779231</v>
+        <v>186681.8327228485</v>
       </c>
       <c r="F6" t="n">
-        <v>253040.340379687</v>
+        <v>369036.9419438982</v>
       </c>
       <c r="G6" t="n">
-        <v>210977.464997789</v>
+        <v>369036.941943898</v>
       </c>
       <c r="H6" t="n">
-        <v>369036.941943898</v>
+        <v>369036.9419438982</v>
       </c>
       <c r="I6" t="n">
         <v>369036.9419438982</v>
       </c>
       <c r="J6" t="n">
-        <v>194385.5932261919</v>
+        <v>258022.476598908</v>
       </c>
       <c r="K6" t="n">
-        <v>369036.9419438982</v>
+        <v>315991.0873051257</v>
       </c>
       <c r="L6" t="n">
-        <v>369036.9419438982</v>
+        <v>359644.6402172759</v>
       </c>
       <c r="M6" t="n">
-        <v>360547.8602405574</v>
+        <v>216836.7710059106</v>
       </c>
       <c r="N6" t="n">
         <v>369036.9419438981</v>
       </c>
       <c r="O6" t="n">
-        <v>253040.3403796871</v>
+        <v>369036.9419438982</v>
       </c>
       <c r="P6" t="n">
-        <v>253040.3403796869</v>
+        <v>369036.9419438981</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097202</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097202</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097199</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097199</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186317</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750252</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186317</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186317</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750252</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>113.7278999628232</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>256.4937245134205</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>101.0685279790871</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27588,22 +27590,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>229.4233680290254</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>369.8422500230728</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27670,19 +27672,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>254.1129761016489</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>160.7958207444076</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27834,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>17.25376178100802</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.8422500230728</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.8422500230727</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,16 +34865,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>512.4570950335029</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35015,7 +35017,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,7 +35026,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35103,13 +35105,13 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>446.7260637956006</v>
+        <v>299.7839758982041</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,19 +35175,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35249,7 +35251,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>667.515206607857</v>
@@ -35258,7 +35260,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>200.3264657984394</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5799957097202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>62.71943809925187</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5799957097202</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L12" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>276.8801716904677</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>701.5799957097202</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5799957097199</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>673.2333292163985</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>432.2592192869801</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097202</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,10 +35819,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165107</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,13 +36056,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36379,7 +36381,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>661.3192390158824</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,19 +36606,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>168.8387779969835</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>677.9686009664961</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097199</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>121.2143535006458</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097199</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097199</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097198</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>212.2804580932195</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097199</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327046</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963853</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2324085.359512494</v>
+        <v>2323560.177143462</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216497</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916856</v>
+        <v>278692.0725916857</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5492709.792342811</v>
+        <v>5492709.792342812</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>320.0331481255877</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -670,16 +670,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>163.5366903425086</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>160.2309512811987</v>
       </c>
       <c r="D4" t="n">
-        <v>63.15068489140545</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -837,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>157.852195952996</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>2.517103554504397</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>34.06158462964276</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>252.0523785885634</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1138,13 +1138,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>61.7084369542271</v>
+        <v>202.0357464550218</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1201,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1305,10 +1305,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>3.13954148002296</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430572</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1372,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314423</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1435,10 +1435,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1548,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>101.7706336613758</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>47.90525155920228</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864836</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>124.4124267272064</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998552</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800603</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -2013,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>13.01313443288555</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2140,7 +2140,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>35.20092700998912</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2301,7 +2301,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695682</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.1838601509832</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>35.20092700998597</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3198,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3246,7 +3246,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>242.789707903734</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.036574780059</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3322,7 +3322,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3426,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>67.84972440587259</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3435,7 +3435,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>31.28831241118197</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3477,13 +3477,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>205.9555570933291</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3748,7 +3748,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3900,13 +3900,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>60.80118788412606</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3918,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>13.99728392830417</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573253</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -4030,13 +4030,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4137,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>31.24391673888107</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.05677735226066</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.640221925911</v>
+        <v>584.3849789974211</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>550.2829102212484</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>518.413529436097</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>488.6791886347962</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4345,7 +4345,7 @@
         <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>625.9919244821526</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>610.8898651018674</v>
       </c>
       <c r="Y2" t="n">
-        <v>464.8993883704147</v>
+        <v>606.6441454419248</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="M3" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="N3" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="O3" t="n">
+        <v>739.9048540962709</v>
+      </c>
+      <c r="P3" t="n">
         <v>1159.957753041174</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1580.010651986078</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1580.010651986078</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>838.3506954956167</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="C4" t="n">
-        <v>838.3506954956167</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4491,49 +4491,49 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1397.332608038895</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>1110.377099909325</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="W4" t="n">
-        <v>838.3506954956167</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="X4" t="n">
-        <v>838.3506954956167</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="Y4" t="n">
-        <v>838.3506954956167</v>
+        <v>1013.629614209975</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2072.614400557222</v>
+        <v>704.1347176932371</v>
       </c>
       <c r="C5" t="n">
-        <v>1634.471927740645</v>
+        <v>265.9922448766604</v>
       </c>
       <c r="D5" t="n">
-        <v>1198.56214291509</v>
+        <v>234.122864091509</v>
       </c>
       <c r="E5" t="n">
-        <v>764.7873980733851</v>
+        <v>74.67620151272521</v>
       </c>
       <c r="F5" t="n">
-        <v>740.960372522997</v>
+        <v>50.84917596233701</v>
       </c>
       <c r="G5" t="n">
-        <v>339.5625411462608</v>
+        <v>50.84917596233701</v>
       </c>
       <c r="H5" t="n">
-        <v>50.43238658947708</v>
+        <v>50.84917596233701</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="J5" t="n">
-        <v>50.43238658947708</v>
+        <v>485.6870740423949</v>
       </c>
       <c r="K5" t="n">
-        <v>674.533170634256</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>1181.865694717424</v>
+        <v>1181.865694717421</v>
       </c>
       <c r="M5" t="n">
-        <v>1181.865694717424</v>
+        <v>1181.865694717421</v>
       </c>
       <c r="N5" t="n">
-        <v>1181.865694717424</v>
+        <v>1181.865694717421</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717424</v>
+        <v>1181.865694717421</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762203</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720797</v>
+        <v>2352.465264720794</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473854</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473854</v>
+        <v>2437.967455657688</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.619329473854</v>
+        <v>2217.900228530727</v>
       </c>
       <c r="U5" t="n">
-        <v>2519.07680063092</v>
+        <v>1958.677925847743</v>
       </c>
       <c r="V5" t="n">
-        <v>2519.07680063092</v>
+        <v>1958.677925847743</v>
       </c>
       <c r="W5" t="n">
-        <v>2518.261750082358</v>
+        <v>1553.822471258777</v>
       </c>
       <c r="X5" t="n">
-        <v>2503.159690702073</v>
+        <v>1538.720411878491</v>
       </c>
       <c r="Y5" t="n">
-        <v>2498.91397104213</v>
+        <v>1130.434288178145</v>
       </c>
     </row>
     <row r="6">
@@ -4637,25 +4637,25 @@
         <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326461</v>
+        <v>92.16803877326456</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993469</v>
+        <v>76.49605974993462</v>
       </c>
       <c r="J6" t="n">
-        <v>401.054384716147</v>
+        <v>401.0543847161469</v>
       </c>
       <c r="K6" t="n">
-        <v>1025.155168760926</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1025.155168760926</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.155168760926</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
         <v>1055.760431341871</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>610.4637778970769</v>
+        <v>593.0357356940353</v>
       </c>
       <c r="C7" t="n">
-        <v>610.4637778970769</v>
+        <v>420.4740241772603</v>
       </c>
       <c r="D7" t="n">
-        <v>444.5857850985996</v>
+        <v>254.596031378783</v>
       </c>
       <c r="E7" t="n">
-        <v>444.5857850985996</v>
+        <v>84.83802762952021</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985996</v>
+        <v>84.83802762952021</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244272</v>
+        <v>84.83802762952021</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148017</v>
+        <v>84.83802762952021</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541669</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253025</v>
+        <v>266.2978593068769</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932636</v>
+        <v>684.507741074838</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1143.991608255751</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413399</v>
+        <v>1586.250411413396</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.91966063918</v>
+        <v>2005.919660639177</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609522</v>
+        <v>2353.426554609519</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473854</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179226</v>
+        <v>2500.201508179223</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477223</v>
+        <v>2340.960139477219</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055678</v>
+        <v>2095.080693055675</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308783</v>
+        <v>1816.64769230878</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.692184179213</v>
+        <v>1529.69218417921</v>
       </c>
       <c r="W7" t="n">
-        <v>1275.093821968543</v>
+        <v>1257.665779765502</v>
       </c>
       <c r="X7" t="n">
-        <v>1029.702067301956</v>
+        <v>1012.274025098914</v>
       </c>
       <c r="Y7" t="n">
-        <v>802.282396616064</v>
+        <v>784.8543544130225</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1011.477214236518</v>
+        <v>749.1815672676233</v>
       </c>
       <c r="C8" t="n">
-        <v>573.3347414199409</v>
+        <v>311.0390944510467</v>
       </c>
       <c r="D8" t="n">
-        <v>511.0029869207216</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>481.2686461194208</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
         <v>53.40121652862856</v>
@@ -4810,46 +4810,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>1598.869320833163</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>1179.726857412474</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>1175.481137752531</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363603</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>233.2795245870976</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>56.57247054885377</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862856</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5029,13 +5029,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
@@ -5050,7 +5050,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
         <v>2588.899621423628</v>
@@ -5074,19 +5074,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
         <v>1107.588885023173</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1008.757289365886</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C13" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D13" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E13" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5223,28 +5223,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2559.679081471576</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="T13" t="n">
-        <v>2313.799635050031</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U13" t="n">
-        <v>2035.366634303136</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V13" t="n">
-        <v>1748.411126173566</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W13" t="n">
-        <v>1476.384721759858</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X13" t="n">
-        <v>1427.995578770765</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y13" t="n">
-        <v>1200.575908084873</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="14">
@@ -5287,19 +5287,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
         <v>5113.042013538981</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1015.727725908489</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>843.1660143917137</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>677.2880215932364</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>507.5300178439736</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>330.8229638057298</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
         <v>330.8229638057298</v>
@@ -5454,34 +5454,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878955</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2571.833510972685</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>2325.954064551141</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U16" t="n">
-        <v>2047.521063804246</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V16" t="n">
-        <v>1760.565555674676</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W16" t="n">
-        <v>1488.539151260968</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X16" t="n">
-        <v>1243.147396594381</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>1015.727725908489</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5557,10 +5557,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1017.756527079655</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>845.1948155628801</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>679.3168227644028</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>509.55881901514</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1209.575145798642</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5761,7 +5761,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5788,16 +5788,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5834,7 +5834,7 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
         <v>1107.588885023173</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2683.363958244297</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497402</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367833</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>605.8694973157604</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1680.92946356862</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2837.977298779171</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
         <v>4943.887948785924</v>
@@ -6071,13 +6071,13 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
         <v>1107.588885023173</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6235,7 +6235,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>531.6733301892817</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>832.0502353276421</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>832.0502353276421</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>666.1722425291648</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1768.706683812817</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1496.680279399108</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1251.288524732521</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1023.868854046629</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6928,7 +6928,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6940,34 +6940,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
         <v>4550.100609912873</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1077.292364523333</v>
+        <v>1036.216302815308</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>863.6545912985331</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>697.7765985000558</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>528.018594750793</v>
       </c>
       <c r="F37" t="n">
         <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7125,22 +7125,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V37" t="n">
-        <v>2013.948813008508</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W37" t="n">
-        <v>1741.922408594799</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X37" t="n">
-        <v>1496.530653928212</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y37" t="n">
-        <v>1269.11098324232</v>
+        <v>1228.034921534295</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>531.6733301892817</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2351.643165215688</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2073.210164468793</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1786.254656339223</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1514.228251925515</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1268.836497258927</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1041.416826573035</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
         <v>1221.073045167952</v>
@@ -7402,7 +7402,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7411,52 +7411,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
         <v>1765.500601749588</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883955</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>811.7546776883955</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>645.8766848899182</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2683.3639582443</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2683.3639582443</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U43" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V43" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W43" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X43" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.992967093275</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407383</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7651,31 +7651,31 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3895.354312623555</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
         <v>4809.322912595856</v>
@@ -7730,19 +7730,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
         <v>1107.588885023173</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>811.7546776883914</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>645.8766848899141</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>476.1186811406514</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>299.4116271024076</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>133.8203521282352</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7818,40 +7818,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8060,25 +8060,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8139,25 +8139,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>35.25505765581499</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="L5" t="n">
-        <v>512.4570950335029</v>
+        <v>72.8058955861095</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,16 +8297,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684634</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664742004</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>30.91440664741913</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.0459320377777</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8385,7 +8385,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>299.7839758982041</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8458,7 +8458,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8698,10 +8698,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8935,7 +8935,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9409,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9482,10 +9482,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9719,16 +9719,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9883,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10120,22 +10120,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,22 +10199,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,22 +10910,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>508.6956131767483</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11147,22 +11147,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,22 +11299,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11378,22 +11378,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>55.87832135360748</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>195.0325855607194</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>33.23652828777691</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>208.2197249473438</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>161.9268490649758</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>208.2197249473402</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.71657238081409</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>208.2197249473433</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>41.29624514453982</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>102.9863699957347</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>143.6516710866794</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
-        <v>37.46509486400021</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>107.2592358276441</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>143.6516710866791</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>107.2592358276482</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729421176</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>474439.2592998935</v>
+        <v>474439.2592998933</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>474439.2592998935</v>
+        <v>474439.2592998933</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>474439.2592998935</v>
+        <v>474439.2592998933</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>474439.2592998933</v>
+        <v>474439.2592998935</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>474439.2592998933</v>
+        <v>474439.2592998935</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>469128.9049041074</v>
+        <v>469128.9049041076</v>
       </c>
       <c r="C2" t="n">
         <v>469128.9049041075</v>
@@ -26322,40 +26322,40 @@
         <v>469128.9049041074</v>
       </c>
       <c r="E2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="F2" t="n">
         <v>461000.3861201834</v>
       </c>
       <c r="G2" t="n">
-        <v>461000.3861201832</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="H2" t="n">
         <v>461000.3861201834</v>
       </c>
       <c r="I2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="J2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="K2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="L2" t="n">
         <v>461000.3861201833</v>
       </c>
       <c r="M2" t="n">
-        <v>461000.3861201833</v>
+        <v>461000.3861201835</v>
       </c>
       <c r="N2" t="n">
         <v>461000.3861201833</v>
       </c>
       <c r="O2" t="n">
-        <v>461000.3861201833</v>
+        <v>461000.3861201835</v>
       </c>
       <c r="P2" t="n">
-        <v>461000.3861201832</v>
+        <v>461000.3861201834</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501615</v>
+        <v>66587.7678950159</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998278</v>
+        <v>11527.59554998302</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210498</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877251</v>
+        <v>53045.85463877231</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622321</v>
+        <v>9392.301726622516</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379876</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>175300.239865111</v>
       </c>
       <c r="C4" t="n">
-        <v>130243.4307963243</v>
+        <v>130243.4307963245</v>
       </c>
       <c r="D4" t="n">
-        <v>122130.8532251352</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="E4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049257</v>
       </c>
       <c r="F4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049257</v>
       </c>
       <c r="G4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049257</v>
       </c>
       <c r="H4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049259</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800258</v>
+        <v>71956.21380800253</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92212.57624206424</v>
+        <v>92212.5762420643</v>
       </c>
       <c r="C6" t="n">
-        <v>200341.4924047645</v>
+        <v>200341.4924047646</v>
       </c>
       <c r="D6" t="n">
-        <v>261257.9315672317</v>
+        <v>261257.9315672314</v>
       </c>
       <c r="E6" t="n">
-        <v>186681.8327228485</v>
+        <v>186658.6083834659</v>
       </c>
       <c r="F6" t="n">
-        <v>369036.9419438982</v>
+        <v>369013.7176045157</v>
       </c>
       <c r="G6" t="n">
-        <v>369036.941943898</v>
+        <v>369013.7176045156</v>
       </c>
       <c r="H6" t="n">
-        <v>369036.9419438982</v>
+        <v>369013.7176045156</v>
       </c>
       <c r="I6" t="n">
-        <v>369036.9419438982</v>
+        <v>369013.7176045155</v>
       </c>
       <c r="J6" t="n">
-        <v>258022.476598908</v>
+        <v>257999.2522595253</v>
       </c>
       <c r="K6" t="n">
-        <v>315991.0873051257</v>
+        <v>315967.8629657432</v>
       </c>
       <c r="L6" t="n">
-        <v>359644.6402172759</v>
+        <v>359621.415877893</v>
       </c>
       <c r="M6" t="n">
-        <v>216836.7710059106</v>
+        <v>216813.546666528</v>
       </c>
       <c r="N6" t="n">
-        <v>369036.9419438981</v>
+        <v>369013.7176045155</v>
       </c>
       <c r="O6" t="n">
-        <v>369036.9419438982</v>
+        <v>369013.7176045157</v>
       </c>
       <c r="P6" t="n">
-        <v>369036.9419438981</v>
+        <v>369013.7176045156</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684627</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483592</v>
+        <v>206.1089748483584</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939342</v>
+        <v>37.11037423939419</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483592</v>
+        <v>206.1089748483584</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939342</v>
+        <v>37.11037423939419</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483592</v>
+        <v>206.1089748483584</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939342</v>
+        <v>37.11037423939419</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27381,7 +27381,7 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>113.7278999628232</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27390,16 +27390,16 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>260.0520649523756</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27539,10 +27539,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>10.6051431204086</v>
       </c>
       <c r="D4" t="n">
-        <v>101.0685279790871</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>271.5848014402918</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.1129761016489</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>53.71176510342865</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>17.25376178100802</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.8422500230728</v>
+        <v>229.5149405222781</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-4.469477151088676e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-4.469477151088676e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-4.469477151088676e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-4.469477151088676e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-4.469477151088676e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-4.469477151088676e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-4.469477151088676e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-4.469477151088676e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28155,10 +28155,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-1.171721723478875e-12</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-4.469477151088676e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-4.469477151088676e-14</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28392,10 +28392,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-4.469477151088676e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28529,7 +28529,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-9.647298711274126e-13</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-1.573974667076856e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-9.189731873468358e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -30468,7 +30468,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30671,7 +30671,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -30750,7 +30750,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -30890,7 +30890,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>2.922225424602705e-12</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34780,25 +34780,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>35.25505765581499</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="L5" t="n">
-        <v>512.4570950335029</v>
+        <v>72.8058955861095</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,22 +35011,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684634</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664742004</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>30.91440664741913</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35093,19 +35093,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908065</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.0459320377777</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>299.7839758982041</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512945</v>
@@ -35178,7 +35178,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35418,10 +35418,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35655,7 +35655,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35822,10 +35822,10 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165107</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>169.891691782153</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36129,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36202,10 +36202,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>170.862691669754</v>
@@ -36439,16 +36439,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36603,10 +36603,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>508.6956131767483</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>170.862691669754</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38019,22 +38019,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38186,10 +38186,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956035</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
